--- a/Sources/docs/plan.xlsx
+++ b/Sources/docs/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Calisthenics\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Calisthenics\Sources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Thời gian</t>
   </si>
@@ -111,9 +111,6 @@
   <si>
     <t>1. Đọc kĩ template
 2. Tách template nếu cần</t>
-  </si>
-  <si>
-    <t>noel rồi</t>
   </si>
   <si>
     <t xml:space="preserve">Viết api update progress_training, khi đăng kí hoàn tất cập nhật dữ liệu training </t>
@@ -152,6 +149,39 @@
   </si>
   <si>
     <t>Làm giao diện trang cài đặt thông tin user, đổ dữ liệu, sửa tt</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng thêm sửa xóa</t>
+  </si>
+  <si>
+    <t>Layout quản lý các bài tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đổ dữ liệu vào ds post, layout thêm  </t>
+  </si>
+  <si>
+    <t>Layout quản lý post (có chức năng lọc post theo category)</t>
+  </si>
+  <si>
+    <t>Đổ dữ liệu ds bài tập, layout thêm bài tập</t>
+  </si>
+  <si>
+    <t>Chức năng thêm sửa xóa bài tập</t>
+  </si>
+  <si>
+    <t>Layout quản lý level</t>
+  </si>
+  <si>
+    <t>Chọn level -&gt; chọn ngày -&gt; hiện ds bài tập level-day đó, (có sửa xóa, chọn bài tập), thêm thông tin rep set break</t>
+  </si>
+  <si>
+    <t>Đổ dữ liệu vào trang quản lý level, xử lý chức năng chọn level, chọn ngày, hiện ds bài tập của level-day đó, thêm sửa xóa bài tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thiện chức năng, tổng kết </t>
+  </si>
+  <si>
+    <t>Fix linh tinh, hết btl</t>
   </si>
 </sst>
 </file>
@@ -533,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,10 +680,10 @@
         <v>43444</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -670,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -682,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -721,7 +751,7 @@
         <v>43451</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,7 +759,7 @@
         <v>43452</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,7 +775,7 @@
         <v>43454</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>25</v>
@@ -755,10 +785,10 @@
       <c r="B21" s="3">
         <v>43455</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -775,20 +805,85 @@
         <v>3</v>
       </c>
       <c r="B24" s="3">
-        <v>43458</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
+        <v>43454</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <v>43459</v>
+        <v>43455</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
+        <v>43456</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>43458</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>43459</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>43460</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>43461</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>43462</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>43463</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>43464</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
